--- a/data/regional_comprehensive_support_center/data.xlsx
+++ b/data/regional_comprehensive_support_center/data.xlsx
@@ -521,16 +521,16 @@
         <v>4</v>
       </c>
       <c r="B4" t="str">
-        <v>34.27597056</v>
+        <v>34.2769731</v>
       </c>
       <c r="C4" t="str">
-        <v>134.08559472</v>
+        <v>134.0856451</v>
       </c>
       <c r="D4" t="str">
-        <v>地域包括支援センターサブセンター山田（山田支所南側）</v>
+        <v>地域包括支援センターサブセンター山田（山田総合センター内）</v>
       </c>
       <c r="E4" t="str">
-        <v>高松市川島本町191-13</v>
+        <v>高松市川島本町191-10</v>
       </c>
       <c r="F4" t="str">
         <v>087-848-6451</v>
@@ -603,7 +603,7 @@
         <v>134.03400861</v>
       </c>
       <c r="D6" t="str">
-        <v>地域包括支援センターサブセンター香川（香川総合センター内）</v>
+        <v>地域包括支援センター香川（香川総合センター内）</v>
       </c>
       <c r="E6" t="str">
         <v>高松市香川町川東上1865-13</v>
